--- a/document/レビュー仕様書 - コピー/グループ内レビュー.xlsx
+++ b/document/レビュー仕様書 - コピー/グループ内レビュー.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\class\Desktop\team_forest - コピー\document\レビュー仕様書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/54fd41506f0d43af/デスクトップ/team_forest/document/レビュー仕様書 - コピー/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{168B36D9-D629-48D6-B513-3EA6B4240610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{168B36D9-D629-48D6-B513-3EA6B4240610}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7FD637B7-065F-499C-BB6A-7A04F003B2FD}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="0" windowWidth="13350" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="原本" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="56">
   <si>
     <t>指摘事項</t>
     <rPh sb="0" eb="2">
@@ -612,11 +612,29 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>aa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>aaaaaaaaaa</t>
+    <t>カレンダーの小さい画像が微妙</t>
+    <rPh sb="6" eb="7">
+      <t>チイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ビミョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TOP画面の文字が見にくい</t>
+    <rPh sb="3" eb="5">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>モジ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ミ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -775,6 +793,10 @@
 </file>
 
 <file path=xl/persons/person6.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/persons/person7.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
@@ -1046,8 +1068,8 @@
   </sheetPr>
   <dimension ref="A1:K32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="101" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1105,7 +1127,9 @@
       <c r="E6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G6" s="9">
         <v>45188</v>
       </c>
@@ -1126,7 +1150,9 @@
       <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G7" s="9">
         <v>45188</v>
       </c>
@@ -1147,7 +1173,9 @@
       <c r="E8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G8" s="9">
         <v>45188</v>
       </c>
@@ -1168,7 +1196,9 @@
       <c r="E9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G9" s="9">
         <v>45195</v>
       </c>
@@ -1188,7 +1218,9 @@
       <c r="E10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G10" s="9">
         <v>45195</v>
       </c>
@@ -1208,7 +1240,9 @@
       <c r="E11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G11" s="9">
         <v>45197</v>
       </c>
@@ -1228,7 +1262,9 @@
       <c r="E12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="1"/>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G12" s="9">
         <v>45197</v>
       </c>
@@ -1248,7 +1284,9 @@
       <c r="E13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="1"/>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G13" s="9">
         <v>45197</v>
       </c>
@@ -1291,7 +1329,9 @@
       <c r="E15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="1"/>
+      <c r="F15" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G15" s="9">
         <v>45202</v>
       </c>
@@ -1311,7 +1351,9 @@
       <c r="E16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G16" s="9">
         <v>45197</v>
       </c>
@@ -1331,7 +1373,9 @@
       <c r="E17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="1"/>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G17" s="9">
         <v>45203</v>
       </c>
@@ -1351,7 +1395,9 @@
       <c r="E18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G18" s="9">
         <v>45202</v>
       </c>
@@ -1371,7 +1417,9 @@
       <c r="E19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F19" s="1"/>
+      <c r="F19" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G19" s="9">
         <v>45197</v>
       </c>
@@ -1391,7 +1439,9 @@
       <c r="E20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G20" s="9">
         <v>45197</v>
       </c>
@@ -1434,7 +1484,9 @@
       <c r="E22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="1"/>
+      <c r="F22" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G22" s="9">
         <v>45204</v>
       </c>
@@ -1501,7 +1553,9 @@
       <c r="E25" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="G25" s="9">
         <v>45203</v>
       </c>
@@ -1515,15 +1569,11 @@
       <c r="C26" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>54</v>
-      </c>
+      <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>55</v>
-      </c>
+      <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="8"/>
       <c r="I26" s="1"/>
@@ -1564,7 +1614,9 @@
       <c r="B29" s="1">
         <v>24</v>
       </c>
-      <c r="C29" s="6"/>
+      <c r="C29" s="6" t="s">
+        <v>54</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1576,7 +1628,9 @@
       <c r="B30" s="1">
         <v>25</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
